--- a/src/Example/Csv/AllType/Check所有类型.xlsx
+++ b/src/Example/Csv/AllType/Check所有类型.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="57">
   <si>
     <t>VarString</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,16 @@
   </si>
   <si>
     <t>VarDictIntFloat</t>
+  </si>
+  <si>
+    <t>AllType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllType</t>
+  </si>
+  <si>
+    <t>Data所有Class类型</t>
   </si>
 </sst>
 </file>
@@ -618,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI10" sqref="AI10"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -645,16 +655,17 @@
     <col min="20" max="20" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.33203125" customWidth="1"/>
     <col min="27" max="27" width="7.33203125" customWidth="1"/>
     <col min="28" max="28" width="30.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -860,7 +871,7 @@
         <v>43</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>11</v>
@@ -869,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="W4">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>44</v>
@@ -879,7 +890,7 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AD4" t="s">
         <v>25</v>
@@ -891,7 +902,7 @@
         <v>1.7</v>
       </c>
       <c r="AG4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s">
         <v>26</v>
@@ -923,7 +934,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -950,7 +961,7 @@
         <v>43</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5">
         <v>11</v>
@@ -959,7 +970,7 @@
         <v>27</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>44</v>
@@ -969,7 +980,7 @@
       </c>
       <c r="Z5" s="3"/>
       <c r="AC5" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="s">
         <v>25</v>
@@ -1004,6 +1015,9 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1034,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="W6">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="X6" s="3" t="s">
         <v>44</v>
@@ -1044,7 +1058,7 @@
       </c>
       <c r="Z6" s="3"/>
       <c r="AC6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s">
         <v>25</v>
@@ -1103,7 +1117,7 @@
         <v>33</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
         <v>11</v>
@@ -1112,7 +1126,7 @@
         <v>27</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>44</v>
